--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -83,6 +83,15 @@
     <t xml:space="preserve">FERIADO</t>
   </si>
   <si>
+    <t xml:space="preserve">Como fazer software funcionar em vários países?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definição de localização e internacionalização. Ferramenta gettext para traduções e format .po.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expositiva; Atividade prática: tradução e localização de um aplicativo linha de comando e de um sistema web em Flask.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Documentação de projeto e o que fazer quando ela não existe.</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
 Atividade prática: Documentação de um projeto em que só o código é disponibilizado. </t>
   </si>
   <si>
+    <t xml:space="preserve">apocalipse zumbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Garantindo que outros possam trabalhar no projeto: documentação de API, qualidade de código e testes</t>
   </si>
   <si>
@@ -102,6 +114,40 @@
   </si>
   <si>
     <t xml:space="preserve">Expositiva; Atividade prática: reforma de um projeto que apresenta más práticas de projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aula estúdio para atividade “Projeto Profissional” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testes de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de testes de software: unitarios, de integração e de interface. Ferramentas de testes: pytest, selenium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expositiva: Ideias por trás de testes de software. 
+Prática: adiciona testes de unidade e de interface ao projeto da atividade passada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição e versionamento de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferramentas de distribuição de software. Tipos de distribuição. Esquemas de versionamento. Referência: FOGEL Cap 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expositiva; Atividade prática: criação de um pacote Python para distribuição via pip e de um pacote Debian para instalação em sistemas baseados em Debian.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA DE PROVAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conhecendo a comunidade Insper: projetos de software pedagógico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aula estúdio para discussão e trabalho em projetos do Insper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull Requests enviados a projetos da organização Insper no github. </t>
   </si>
   <si>
     <t xml:space="preserve">Licenças de software</t>
@@ -114,36 +160,6 @@
     <t xml:space="preserve">Expositiva; Atividade prática: discussões de casos relevantes recentes</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribuição e versionamento de software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferramentas de distribuição de software. Tipos de distribuição. Esquemas de versionamento. Referência: FOGEL Cap 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expositiva; Atividade prática: criação de um pacote Python para distribuição via pip e de um pacote Debian para instalação em sistemas baseados em Debian.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como fazer software funcionar em vários países?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definição de localização e internacionalização. Ferramenta gettext para traduções e format .po.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expositiva; Atividade prática: tradução e localização de um aplicativo linha de comando e de um sistema web em Flask.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conhecendo a comunidade Insper: projetos de software pedagógico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula estúdio para discussão e trabalho em projetos do Insper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pull Requests enviados a projetos da organização Insper no github. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMANA DE PROVAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trabalho em grupo em comunidades de software</t>
   </si>
   <si>
@@ -158,15 +174,6 @@
 Atividade: formação de grupos baseado em um questionário respondido pelos alunos. </t>
   </si>
   <si>
-    <t xml:space="preserve">Quais comportamentos são aceitáveis quando trabalhamos em grupo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código de conduta . Referência: FOGEL Cap 6, 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atividade prática: discussão de uma situação fictícia envolvendo comportamentos e opiniões polarizantes. Cada grupo apresenta um resumo do que avaliou. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Projeto da disciplina</t>
   </si>
   <si>
@@ -186,9 +193,6 @@
   </si>
   <si>
     <t xml:space="preserve">Retrospectiva 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terceiro Sprint do projeto</t>
   </si>
   <si>
     <t xml:space="preserve">Tópicos sobre cultura livre e comunidades de software</t>
@@ -216,6 +220,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -237,14 +242,16 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +268,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBF0041"/>
         <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD3C1"/>
+        <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
   </fills>
@@ -298,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,18 +344,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -385,7 +402,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFCD3C1"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -412,20 +429,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="65" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,43 +573,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <f aca="false">A6 + 7</f>
         <v>43892</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <f aca="false">A7 + 7</f>
         <v>43894</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="106.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <f aca="false">A8 + 7</f>
         <v>43899</v>
@@ -599,7 +601,7 @@
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -609,7 +611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="106.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <f aca="false">A9 + 7</f>
         <v>43901</v>
@@ -617,7 +619,7 @@
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -627,195 +629,185 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <f aca="false">A10 + 7</f>
         <v>43906</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="82.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <f aca="false">A11 + 7</f>
         <v>43908</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <f aca="false">A12 + 7</f>
         <v>43913</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <f aca="false">A13 + 7</f>
         <v>43915</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
+      <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <f aca="false">A14 + 7</f>
         <v>43920</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
+      <c r="B16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <f aca="false">A15 + 7</f>
         <v>43922</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <f aca="false">A16 + 7</f>
         <v>43927</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>35</v>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <f aca="false">A17 + 7</f>
         <v>43929</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <f aca="false">A18 + 7</f>
         <v>43934</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="106.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <f aca="false">A19 + 7</f>
         <v>43936</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <f aca="false">A20 + 7</f>
         <v>43941</v>
@@ -823,177 +815,196 @@
       <c r="B22" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <f aca="false">A21 + 7</f>
         <v>43943</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <f aca="false">A22 + 7</f>
         <v>43948</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
+      <c r="B24" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <f aca="false">A23 + 7</f>
         <v>43950</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>43</v>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <f aca="false">A24 + 7</f>
         <v>43955</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <f aca="false">A25 + 7</f>
         <v>43957</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <f aca="false">A26 + 7</f>
         <v>43962</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <f aca="false">A27 + 7</f>
         <v>43964</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <f aca="false">A28 + 7</f>
         <v>43969</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <f aca="false">A29 + 7</f>
         <v>43971</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
@@ -1001,134 +1012,150 @@
         <v>43976</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <f aca="false">A31 + 7</f>
         <v>43978</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <f aca="false">A32 + 7</f>
         <v>43983</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <f aca="false">A33 + 7</f>
         <v>43985</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
         <f aca="false">A34 + 7</f>
         <v>43990</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
+      <c r="B37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
+      <c r="B38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
+      <c r="B39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:E13"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Data</t>
   </si>
@@ -98,7 +98,25 @@
     <t xml:space="preserve">Expositiva; Atividade prática: reforma de um projeto que apresenta más práticas de projeto</t>
   </si>
   <si>
+    <t xml:space="preserve">Distribuição e versionamento de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferramentas de distribuição de software. Tipos de distribuição. Esquemas de versionamento. Referência: FOGEL Cap 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expositiva; Atividade prática: criação de um pacote Python para distribuição via pip e de um pacote Debian para instalação em sistemas baseados em Debian.</t>
+  </si>
+  <si>
     <t>FERIADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como fazer software funcionar em vários países?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definição de localização e internacionalização. Ferramenta gettext para traduções e format .po.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expositiva; Atividade prática: tradução e localização de um aplicativo linha de comando e de um sistema web em Flask.</t>
   </si>
   <si>
     <t xml:space="preserve">Testes de software</t>
@@ -111,22 +129,7 @@
 Prática: adiciona testes de unidade e de interface ao projeto da atividade passada</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribuição e versionamento de software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferramentas de distribuição de software. Tipos de distribuição. Esquemas de versionamento. Referência: FOGEL Cap 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expositiva; Atividade prática: criação de um pacote Python para distribuição via pip e de um pacote Debian para instalação em sistemas baseados em Debian.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como fazer software funcionar em vários países?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definição de localização e internacionalização. Ferramenta gettext para traduções e format .po.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expositiva; Atividade prática: tradução e localização de um aplicativo linha de comando e de um sistema web em Flask.</t>
+    <t xml:space="preserve">Aula estúdio para atividade “Testes de Software” </t>
   </si>
   <si>
     <t xml:space="preserve">Licenças de software</t>
@@ -139,13 +142,13 @@
     <t xml:space="preserve">Expositiva; Atividade prática: discussões de casos relevantes recentes</t>
   </si>
   <si>
-    <t xml:space="preserve">Conhecendo a comunidade Insper: projetos de software pedagógico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula estúdio para discussão e trabalho em projetos do Insper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pull Requests enviados a projetos da organização Insper no github. </t>
+    <t xml:space="preserve">Introdução a contribuições em projetos abertos - Atividade "Minha primeira contribuição"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aula estúdio para atividade em grupo "Minha primeira contribuição"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull Requests enviados a projetos da externos no Github</t>
   </si>
   <si>
     <t xml:space="preserve">SEMANA DE PROVAS</t>
@@ -257,7 +260,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -271,14 +274,17 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -763,7 +769,7 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -781,7 +787,7 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -793,7 +799,7 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -823,13 +829,13 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -845,7 +851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="76.5">
+    <row r="6" ht="51">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>44439</v>
@@ -863,22 +869,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="102">
+    <row r="7" ht="63.75">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>44441</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="13.300000000000001">
@@ -886,17 +892,17 @@
         <f t="shared" si="0"/>
         <v>44446</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>23</v>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="89.25">
@@ -904,17 +910,17 @@
         <f t="shared" si="0"/>
         <v>44448</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" ht="89.25">
@@ -922,53 +928,53 @@
         <f t="shared" si="0"/>
         <v>44453</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" ht="89.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="76.5">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>44455</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
+      <c r="B11" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" ht="89.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="63.75">
       <c r="A12" s="3">
         <f t="shared" ref="A12:A34" si="1">A10 + 7</f>
         <v>44460</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>9</v>
@@ -988,17 +994,17 @@
         <f t="shared" si="1"/>
         <v>44462</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>9</v>
@@ -1018,17 +1024,17 @@
         <f t="shared" si="1"/>
         <v>44467</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>36</v>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" ht="25.5">
@@ -1036,17 +1042,17 @@
         <f t="shared" si="1"/>
         <v>44469</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>39</v>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="89.25">
@@ -1054,17 +1060,17 @@
         <f t="shared" si="1"/>
         <v>44474</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>39</v>
+      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="51">
@@ -1072,17 +1078,17 @@
         <f t="shared" si="1"/>
         <v>44476</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>36</v>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" ht="25.5">
@@ -1090,17 +1096,17 @@
         <f t="shared" si="1"/>
         <v>44481</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>23</v>
+      <c r="B18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="102">
@@ -1109,16 +1115,16 @@
         <v>44483</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" ht="63.75">
@@ -1127,16 +1133,16 @@
         <v>44488</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" ht="63.75">
@@ -1145,34 +1151,34 @@
         <v>44490</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" ht="63.75">
+      <c r="A22" s="3">
+        <f t="shared" si="1"/>
+        <v>44495</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" ht="102">
-      <c r="A22" s="3">
-        <f t="shared" si="1"/>
-        <v>44495</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="63.75">
@@ -1181,16 +1187,16 @@
         <v>44497</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="51">
@@ -1198,17 +1204,17 @@
         <f t="shared" si="1"/>
         <v>44502</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>23</v>
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="63.75">
@@ -1217,16 +1223,16 @@
         <v>44504</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="127.5">
@@ -1235,28 +1241,28 @@
         <v>44509</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="63.75">
@@ -1265,16 +1271,16 @@
         <v>44511</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="63.75">
@@ -1283,16 +1289,16 @@
         <v>44516</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="63.75">
@@ -1301,16 +1307,16 @@
         <v>44518</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="102">
@@ -1319,16 +1325,16 @@
         <v>44523</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" ht="102">
@@ -1337,16 +1343,16 @@
         <v>44525</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="63.75">
@@ -1355,16 +1361,16 @@
         <v>44530</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -1373,17 +1379,17 @@
         <f t="shared" si="1"/>
         <v>44532</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>39</v>
+      <c r="B33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" ht="63.75">
@@ -1391,17 +1397,17 @@
         <f t="shared" si="1"/>
         <v>44537</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>39</v>
+      <c r="B34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="63.75">

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -98,6 +98,9 @@
     <t xml:space="preserve">Expositiva; Atividade prática: reforma de um projeto que apresenta más práticas de projeto</t>
   </si>
   <si>
+    <t>FERIADO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Distribuição e versionamento de software</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
     <t xml:space="preserve">Expositiva; Atividade prática: criação de um pacote Python para distribuição via pip e de um pacote Debian para instalação em sistemas baseados em Debian.</t>
   </si>
   <si>
-    <t>FERIADO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Como fazer software funcionar em vários países?</t>
   </si>
   <si>
@@ -117,6 +117,16 @@
   </si>
   <si>
     <t xml:space="preserve">Expositiva; Atividade prática: tradução e localização de um aplicativo linha de comando e de um sistema web em Flask.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenças de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direitos autorais no Brasil, patentes e licenças de software;
+Referência: LAURENT Cap 1 e 5, STALLMAN Cap 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expositiva; Atividade prática: discussões de casos relevantes recentes</t>
   </si>
   <si>
     <t xml:space="preserve">Testes de software</t>
@@ -130,16 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">Aula estúdio para atividade “Testes de Software” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licenças de software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direitos autorais no Brasil, patentes e licenças de software;
-Referência: LAURENT Cap 1 e 5, STALLMAN Cap 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expositiva; Atividade prática: discussões de casos relevantes recentes</t>
   </si>
   <si>
     <t xml:space="preserve">Introdução a contribuições em projetos abertos - Atividade "Minha primeira contribuição"</t>
@@ -260,7 +260,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,12 +279,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -869,22 +863,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="63.75">
+    <row r="7" ht="89.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>44441</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="13.300000000000001">
@@ -893,70 +887,70 @@
         <v>44446</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" ht="89.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="76.5">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>44448</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" ht="89.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="165.75">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>44453</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" ht="76.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="63.75">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>44455</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>33</v>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="63.75">
@@ -964,17 +958,17 @@
         <f t="shared" ref="A12:A34" si="1">A10 + 7</f>
         <v>44460</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>9</v>
@@ -994,17 +988,17 @@
         <f t="shared" si="1"/>
         <v>44462</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>9</v>
@@ -1024,8 +1018,8 @@
         <f t="shared" si="1"/>
         <v>44467</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>38</v>
@@ -1096,17 +1090,17 @@
         <f t="shared" si="1"/>
         <v>44481</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>26</v>
+      <c r="B18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="102">
@@ -1204,17 +1198,17 @@
         <f t="shared" si="1"/>
         <v>44502</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>26</v>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="63.75">

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Data</t>
   </si>
@@ -28,94 +27,94 @@
     <t>16/08</t>
   </si>
   <si>
-    <t>Apresentação da disciplina e seus desafios</t>
-  </si>
-  <si>
-    <t>Fluxo de trabalho com controle de versão distribuído: forks, patches, pull requests e repositórios locais. Contexto técnico e não técnico ao redor de um software: infraestrutura, suporte, marketing, financiamento. Referência: FOGEL Cap 3.; Leitura complementar: TAPSCOTT &amp; WILLIAMS.</t>
+    <t xml:space="preserve">Apresentação da disciplina e seus desafios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxo de trabalho com controle de versão distribuído: forks, patches, pull requests e repositórios locais. Contexto técnico e não técnico ao redor de um software: infraestrutura, suporte, marketing, financiamento. Referência: FOGEL Cap 3.; Leitura complementar: TAPSCOTT &amp; WILLIAMS.</t>
   </si>
   <si>
     <t>18/08</t>
   </si>
   <si>
-    <t>Primeira contribuição de código</t>
-  </si>
-  <si>
-    <t>Fluxo de trabalho com controle de versão distribuído: ammend, rebase, revert.</t>
+    <t xml:space="preserve">Primeira contribuição de código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxo de trabalho com controle de versão distribuído: ammend, rebase, revert.</t>
   </si>
   <si>
     <t>23/08</t>
   </si>
   <si>
-    <t>Documentação de projeto e o que fazer quando ela não existe.</t>
-  </si>
-  <si>
-    <t>Tipos de documentação (usuário, desenvolvedor). Sistemas de documentação de código fonte: doxygen, Javadoc, pydoc, sphinx; Referência: FOGEL Cap 3 (Wikis, Website)</t>
+    <t xml:space="preserve">Documentação de projeto e o que fazer quando ela não existe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de documentação (usuário, desenvolvedor). Sistemas de documentação de código fonte: doxygen, Javadoc, pydoc, sphinx; Referência: FOGEL Cap 3 (Wikis, Website)</t>
   </si>
   <si>
     <t>25/08</t>
   </si>
   <si>
-    <t>Aula estúdio para atividade “Projeto Profissional”</t>
+    <t xml:space="preserve">Aula estúdio para atividade “Projeto Profissional”</t>
   </si>
   <si>
     <t>30/08</t>
   </si>
   <si>
-    <t>Garantindo que outros possam trabalhar no projeto: documentação de API, qualidade de código e testes</t>
-  </si>
-  <si>
-    <t>Testes unitários, Linters, documentação de API usando sphinx.</t>
+    <t xml:space="preserve">Garantindo que outros possam trabalhar no projeto: documentação de API, qualidade de código e testes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testes unitários, Linters, documentação de API usando sphinx.</t>
   </si>
   <si>
     <t>01/09</t>
   </si>
   <si>
-    <t>Distribuição e versionamento de software</t>
-  </si>
-  <si>
-    <t>Ferramentas de distribuição de software. Tipos de distribuição. Esquemas de versionamento. Referência: FOGEL Cap 7</t>
+    <t xml:space="preserve">Distribuição e versionamento de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferramentas de distribuição de software. Tipos de distribuição. Esquemas de versionamento. Referência: FOGEL Cap 7</t>
   </si>
   <si>
     <t>06/09</t>
   </si>
   <si>
-    <t>Como fazer software funcionar em vários países?</t>
-  </si>
-  <si>
-    <t>Definição de localização e internacionalização. Ferramenta gettext para traduções e format .po.</t>
+    <t xml:space="preserve">Como fazer software funcionar em vários países?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definição de localização e internacionalização. Ferramenta gettext para traduções e format .po.</t>
   </si>
   <si>
     <t>08/09</t>
   </si>
   <si>
-    <t>Testes de software</t>
-  </si>
-  <si>
-    <t>Tipos de testes de software: unitarios, de integração e de interface. Ferramentas de testes: pytest, selenium</t>
+    <t xml:space="preserve">Testes de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de testes de software: unitarios, de integração e de interface. Ferramentas de testes: pytest, selenium</t>
   </si>
   <si>
     <t>13/09</t>
   </si>
   <si>
-    <t>Aula estúdio para atividade “Testes de Software”</t>
+    <t xml:space="preserve">Aula estúdio para atividade “Testes de Software”</t>
   </si>
   <si>
     <t>15/09</t>
   </si>
   <si>
-    <t>Licenças de software</t>
-  </si>
-  <si>
-    <t>Direitos autorais no Brasil, patentes e licenças de software; Referência: LAURENT Cap 1 e 5, STALLMAN Cap 6</t>
+    <t xml:space="preserve">Licenças de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direitos autorais no Brasil, patentes e licenças de software; Referência: LAURENT Cap 1 e 5, STALLMAN Cap 6</t>
   </si>
   <si>
     <t>20/09</t>
   </si>
   <si>
-    <t>Introdução a contribuições em projetos abertos - Atividade "Minha primeira contribuição"</t>
-  </si>
-  <si>
-    <t>Aula estúdio para atividade em grupo "Minha primeira contribuição"</t>
+    <t xml:space="preserve">Introdução a contribuições em projetos abertos - Atividade "Minha primeira contribuição"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aula estúdio para atividade em grupo "Minha primeira contribuição"</t>
   </si>
   <si>
     <t>22/09</t>
@@ -127,7 +126,7 @@
     <t>29/09</t>
   </si>
   <si>
-    <t>SEMANA DE PROVAS</t>
+    <t xml:space="preserve">SEMANA DE PROVAS</t>
   </si>
   <si>
     <t>04/10</t>
@@ -142,19 +141,19 @@
     <t>11/10</t>
   </si>
   <si>
-    <t>Trabalho em grupo em comunidades de software</t>
-  </si>
-  <si>
-    <t>Métricas de avaliação da segunda parte da disciplina; Comunicação e trabalho em grupo. Referência: RAYMOND Cap 4</t>
+    <t xml:space="preserve">Trabalho em grupo em comunidades de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Métricas de avaliação da segunda parte da disciplina; Comunicação e trabalho em grupo. Referência: RAYMOND Cap 4</t>
   </si>
   <si>
     <t>13/10</t>
   </si>
   <si>
-    <t>Projeto da disciplina</t>
-  </si>
-  <si>
-    <t>Aula estúdio para desenvolvimento de projeto</t>
+    <t xml:space="preserve">Projeto da disciplina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aula estúdio para desenvolvimento de projeto</t>
   </si>
   <si>
     <t>18/10</t>
@@ -172,25 +171,40 @@
     <t>01/11</t>
   </si>
   <si>
+    <t xml:space="preserve">NÃO TEREMOS AULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reposição desta aula nos dias 9 e 16/11</t>
+  </si>
+  <si>
     <t>03/11</t>
   </si>
   <si>
     <t>08/11</t>
   </si>
   <si>
+    <t>09/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reposição de aula (12:00 - 13:00)</t>
+  </si>
+  <si>
     <t>10/11</t>
   </si>
   <si>
     <t>15/11</t>
   </si>
   <si>
+    <t>16/11</t>
+  </si>
+  <si>
     <t>17/11</t>
   </si>
   <si>
-    <t>Tópicos sobre cultura livre e comunidades de software</t>
-  </si>
-  <si>
-    <t>Estudos de caso de polêmicas recentes no âmbito de licenças de software, diversidade e privacidade. Referências complementares: BENKLER, TORVALDS, STALLMAN, RAYMOND</t>
+    <t xml:space="preserve">Tópicos sobre cultura livre e comunidades de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudos de caso de polêmicas recentes no âmbito de licenças de software, diversidade e privacidade. Referências complementares: BENKLER, TORVALDS, STALLMAN, RAYMOND</t>
   </si>
   <si>
     <t>22/11</t>
@@ -211,27 +225,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Roboto"/>
-      <family val="2"/>
+      <color indexed="64"/>
+      <sz val="8.000000"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,14 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -259,54 +262,331 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -342,73 +622,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,7 +636,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -436,9 +656,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -459,11 +679,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -472,13 +692,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -488,7 +708,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -497,7 +717,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -506,30 +726,19 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -551,11 +760,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -569,37 +776,35 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView topLeftCell="A20" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="53.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="54.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="14.719285714285713"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="53.433571428571433"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="54.576428571428572"/>
+    <col bestFit="1" customWidth="1" min="4" max="5" style="2" width="13.005000000000001"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,436 +817,465 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="41.25" customFormat="1" s="3">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="32.25" customFormat="1" s="3">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25" customFormat="1" s="3">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="2" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25" customFormat="1" s="3">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="2" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25" customFormat="1" s="3">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="2" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25" customFormat="1" s="3">
-      <c r="A9" s="4" t="s">
+    <row r="9" s="2" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25" customFormat="1" s="3">
-      <c r="A11" s="4" t="s">
+    <row r="11" s="2" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25" customFormat="1" s="3">
-      <c r="A12" s="4" t="s">
+    <row r="12" s="2" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A13" s="4" t="s">
+    <row r="13" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A14" s="4" t="s">
+    <row r="14" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A15" s="4" t="s">
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A16" s="4" t="s">
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A17" s="4" t="s">
+    <row r="17" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="23.25" customFormat="1" s="3">
-      <c r="A18" s="4" t="s">
+    <row r="18" s="2" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A19" s="4" t="s">
+    <row r="19" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A20" s="4" t="s">
+    <row r="20" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A21" s="4" t="s">
+    <row r="21" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A22" s="4" t="s">
+    <row r="22" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A23" s="4" t="s">
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A24" s="4" t="s">
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>46</v>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>46</v>
+      <c r="C27" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>40</v>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="32.25" customFormat="1" s="3">
-      <c r="A29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>58</v>
+    <row r="29" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="32.25" customFormat="1" s="3">
-      <c r="A30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="4" t="s">
+    <row r="30" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>58</v>
+    <row r="31" s="2" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>58</v>
+    <row r="32" s="2" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>37</v>
+    <row r="33" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18" customFormat="1" s="3">
-      <c r="A34" s="4" t="s">
+    <row r="34" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
+    <row r="35" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Data</t>
   </si>
@@ -204,16 +204,25 @@
     <t xml:space="preserve">Tópicos sobre cultura livre e comunidades de software</t>
   </si>
   <si>
-    <t xml:space="preserve">Estudos de caso de polêmicas recentes no âmbito de licenças de software, diversidade e privacidade. Referências complementares: BENKLER, TORVALDS, STALLMAN, RAYMOND</t>
+    <t xml:space="preserve">GitHub Copilot é ético? [Eiki Yamashiro e Marcelo Miguel]; A relação entre Software as a Service (SaaS) e projetos de Código Aberto [Caroline Chaim, Felipe Lemos, João Farias Araujo]</t>
   </si>
   <si>
     <t>22/11</t>
   </si>
   <si>
+    <t xml:space="preserve">Telemetria é "ético"? [Guilherme Lunetta, Rafael Monteiro e João Magalhães]; Regulamentações futuras na Europa sobre responsabilidade legal dos criadores de IAs [Luiza Silvera, Guilherme Batista e Gabriel Zanetti]</t>
+  </si>
+  <si>
     <t>24/11</t>
   </si>
   <si>
+    <t xml:space="preserve">Regulamentações recentes na Europa sobre durabilidade de smartphones. [Keiya Nishio e Bruno Freitas]; Por que Open Source é crítico para criptomoedas? [Paulo Kim, Raphael Lahiry e Rodrigo Coelho]</t>
+  </si>
+  <si>
     <t>29/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The new open-source economics (Yochai Benkler, 2005). O que mudou de 2005 para 2022? [João Pedro Meirelles, Gustavo Molina e Rafael Almada]; Mantainer burnout [Cesar Ades e Jonathan Sutton]</t>
   </si>
   <si>
     <t>01/12</t>
@@ -226,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -235,13 +244,17 @@
     </font>
     <font>
       <name val="Roboto"/>
-      <color indexed="64"/>
       <sz val="8.000000"/>
     </font>
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
       <sz val="11.000000"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <color rgb="FF24292F"/>
+      <sz val="10.500000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -264,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -279,6 +292,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,7 +808,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1194,61 +1210,61 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="32.25" customHeight="1">
+    <row r="31" s="2" customFormat="1" ht="51">
       <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="32.25" customHeight="1">
+    <row r="32" s="2" customFormat="1" ht="51">
       <c r="A32" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>63</v>
+      <c r="C32" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="33" s="2" customFormat="1" ht="36">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="34" s="2" customFormat="1" ht="36">
       <c r="A34" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>37</v>
@@ -1261,7 +1277,7 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>37</v>
@@ -1275,7 +1291,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -13,248 +13,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Questão/Problema/Desafio</t>
-  </si>
-  <si>
-    <t>Conteúdo</t>
-  </si>
-  <si>
-    <t>16/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apresentação da disciplina e seus desafios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluxo de trabalho com controle de versão distribuído: forks, patches, pull requests e repositórios locais. Contexto técnico e não técnico ao redor de um software: infraestrutura, suporte, marketing, financiamento. Referência: FOGEL Cap 3.; Leitura complementar: TAPSCOTT &amp; WILLIAMS.</t>
-  </si>
-  <si>
-    <t>18/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primeira contribuição de código</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluxo de trabalho com controle de versão distribuído: ammend, rebase, revert.</t>
-  </si>
-  <si>
-    <t>23/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentação de projeto e o que fazer quando ela não existe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipos de documentação (usuário, desenvolvedor). Sistemas de documentação de código fonte: doxygen, Javadoc, pydoc, sphinx; Referência: FOGEL Cap 3 (Wikis, Website)</t>
-  </si>
-  <si>
-    <t>25/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula estúdio para atividade “Projeto Profissional”</t>
-  </si>
-  <si>
-    <t>30/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantindo que outros possam trabalhar no projeto: documentação de API, qualidade de código e testes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testes unitários, Linters, documentação de API usando sphinx.</t>
-  </si>
-  <si>
-    <t>01/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribuição e versionamento de software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferramentas de distribuição de software. Tipos de distribuição. Esquemas de versionamento. Referência: FOGEL Cap 7</t>
-  </si>
-  <si>
-    <t>06/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como fazer software funcionar em vários países?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definição de localização e internacionalização. Ferramenta gettext para traduções e format .po.</t>
-  </si>
-  <si>
-    <t>08/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testes de software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipos de testes de software: unitarios, de integração e de interface. Ferramentas de testes: pytest, selenium</t>
-  </si>
-  <si>
-    <t>13/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula estúdio para atividade “Testes de Software”</t>
-  </si>
-  <si>
-    <t>15/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licenças de software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direitos autorais no Brasil, patentes e licenças de software; Referência: LAURENT Cap 1 e 5, STALLMAN Cap 6</t>
-  </si>
-  <si>
-    <t>20/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introdução a contribuições em projetos abertos - Atividade "Minha primeira contribuição"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula estúdio para atividade em grupo "Minha primeira contribuição"</t>
-  </si>
-  <si>
-    <t>22/09</t>
-  </si>
-  <si>
-    <t>27/09</t>
-  </si>
-  <si>
-    <t>29/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMANA DE PROVAS</t>
-  </si>
-  <si>
-    <t>04/10</t>
-  </si>
-  <si>
-    <t>06/10</t>
-  </si>
-  <si>
-    <t>FERIADO</t>
-  </si>
-  <si>
-    <t>11/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabalho em grupo em comunidades de software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Métricas de avaliação da segunda parte da disciplina; Comunicação e trabalho em grupo. Referência: RAYMOND Cap 4</t>
-  </si>
-  <si>
-    <t>13/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projeto da disciplina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula estúdio para desenvolvimento de projeto</t>
-  </si>
-  <si>
-    <t>18/10</t>
-  </si>
-  <si>
-    <t>20/10</t>
-  </si>
-  <si>
-    <t>25/10</t>
-  </si>
-  <si>
-    <t>27/10</t>
-  </si>
-  <si>
-    <t>01/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NÃO TEREMOS AULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reposição desta aula nos dias 9 e 16/11</t>
-  </si>
-  <si>
-    <t>03/11</t>
-  </si>
-  <si>
-    <t>08/11</t>
-  </si>
-  <si>
-    <t>09/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reposição de aula (12:00 - 13:00)</t>
-  </si>
-  <si>
-    <t>10/11</t>
-  </si>
-  <si>
-    <t>15/11</t>
-  </si>
-  <si>
-    <t>16/11</t>
-  </si>
-  <si>
-    <t>17/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópicos sobre cultura livre e comunidades de software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Copilot é ético? [Eiki Yamashiro e Marcelo Miguel]; A relação entre Software as a Service (SaaS) e projetos de Código Aberto [Caroline Chaim, Felipe Lemos, João Farias Araujo]</t>
-  </si>
-  <si>
-    <t>22/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telemetria é "ético"? [Guilherme Lunetta, Rafael Monteiro e João Magalhães]; Regulamentações futuras na Europa sobre responsabilidade legal dos criadores de IAs [Luiza Silvera, Guilherme Batista e Gabriel Zanetti]</t>
-  </si>
-  <si>
-    <t>24/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulamentações recentes na Europa sobre durabilidade de smartphones. [Keiya Nishio e Bruno Freitas]; Por que Open Source é crítico para criptomoedas? [Paulo Kim, Raphael Lahiry e Rodrigo Coelho]</t>
-  </si>
-  <si>
-    <t>29/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The new open-source economics (Yochai Benkler, 2005). O que mudou de 2005 para 2022? [João Pedro Meirelles, Gustavo Molina e Rafael Almada]; Mantainer burnout [Cesar Ades e Jonathan Sutton]</t>
-  </si>
-  <si>
-    <t>01/12</t>
-  </si>
-  <si>
-    <t>06/12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Question/Problem/Challenge</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to the course and its challenges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workflow with distributed version control: forks, patches, pull requests, and local repositories. Technical and non-technical aspects surrounding software: infrastructure, support, marketing, funding. Reference: FOGEL Ch. 3; Additional reading: TAPSCOTT &amp; WILLIAMS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First code contribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workflow with distributed version control: ammend, rebase, revert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project documentation and what to do when it doesn't exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of documentation (user, developer). Source code documentation systems: doxygen, Javadoc, pydoc, sphinx; Reference: FOGEL Ch. 3 (Wikis, Website)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studio class for "Professional Project" activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensuring others can work on the project: API documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> code quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software distribution and versioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software distribution tools. Types of distribution. Versioning schemes. Reference: FOGEL Ch. 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to make software work in multiple countries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localization and internationalization. Gettext tool for translations and .po format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of software testing: unit, integration, and interface. Testing tools: pytest, selenium.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studio class for "Software Testing" activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software licenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyrights in Brazil, patents, and software licenses; Reference: LAURENT Ch. 1 and 5, STALLMAN Ch. 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to contributions in open projects - Activity "My First Contribution"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studio class for group activity "My First Contribution"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working in software communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment metrics for the second part of the course; Communication and teamwork. Reference: RAYMOND Ch. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studio class for project development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXAM WEEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUBLIC HOLIDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topics on free culture and software communities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="3">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Roboto"/>
-      <sz val="8.000000"/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
-      <name val="Liberation Sans"/>
-      <color rgb="FF24292F"/>
-      <sz val="10.500000"/>
+      <sz val="8.000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -277,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -285,17 +154,23 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,7 +683,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -821,477 +696,495 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4">
+        <v>45152</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4">
+        <v>45154</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A4" s="7">
+        <f>A2+7</f>
+        <v>45159</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A5" s="7">
+        <f>A3+7</f>
+        <v>45161</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
+    <row r="6" s="2" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A6" s="7">
+        <f>A4+7</f>
+        <v>45166</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
+    <row r="7" s="2" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A7" s="7">
+        <f>A5+7</f>
+        <v>45168</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
+    <row r="8" s="2" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A8" s="7">
+        <f>A6+7</f>
+        <v>45173</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
+    <row r="9" s="2" customFormat="1" ht="48" customHeight="1">
+      <c r="A9" s="7">
+        <f>A7+7</f>
+        <v>45175</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
+    <row r="10" s="2" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A10" s="7">
+        <f>A8+7</f>
+        <v>45180</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
+    <row r="11" s="2" customFormat="1" ht="39" customHeight="1">
+      <c r="A11" s="7">
+        <f>A9+7</f>
+        <v>45182</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
+    <row r="12" s="2" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A12" s="7">
+        <f>A10+7</f>
+        <v>45187</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>34</v>
+      <c r="A13" s="7">
+        <f>A11+7</f>
+        <v>45189</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>35</v>
+      <c r="A14" s="7">
+        <f>A12+7</f>
+        <v>45194</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>36</v>
+      <c r="A15" s="7">
+        <f>A13+7</f>
+        <v>45196</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>38</v>
+      <c r="A16" s="7">
+        <f>A14+7</f>
+        <v>45201</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
+      <c r="A17" s="7">
+        <f>A15+7</f>
+        <v>45203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
+      <c r="A18" s="7">
+        <f>A16+7</f>
+        <v>45208</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>44</v>
+      <c r="A19" s="7">
+        <f>A17+7</f>
+        <v>45210</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>47</v>
+      <c r="A20" s="7">
+        <f>A18+7</f>
+        <v>45215</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
+      <c r="A21" s="7">
+        <f>A19+7</f>
+        <v>45217</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
+      <c r="A22" s="7">
+        <f>A20+7</f>
+        <v>45222</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>50</v>
+      <c r="A23" s="7">
+        <f>A21+7</f>
+        <v>45224</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
+      <c r="A24" s="7">
+        <f>A22+7</f>
+        <v>45229</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>54</v>
+      <c r="A25" s="7">
+        <f>A23+7</f>
+        <v>45231</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>55</v>
+      <c r="A26" s="7">
+        <f>A24+7</f>
+        <v>45236</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>56</v>
+      <c r="A27" s="7">
+        <f>A25+7</f>
+        <v>45238</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>58</v>
+      <c r="A28" s="7">
+        <f>A26+7</f>
+        <v>45243</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>59</v>
+      <c r="A29" s="7">
+        <f>A27+7</f>
+        <v>45245</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>60</v>
+      <c r="A30" s="7">
+        <f>A28+7</f>
+        <v>45250</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="51">
-      <c r="A31" s="3" t="s">
-        <v>61</v>
+    <row r="31" s="2" customFormat="1" ht="57">
+      <c r="A31" s="7">
+        <f>A29+7</f>
+        <v>45252</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="51">
-      <c r="A32" s="3" t="s">
-        <v>64</v>
+    <row r="32" s="2" customFormat="1" ht="57">
+      <c r="A32" s="7">
+        <f>A30+7</f>
+        <v>45257</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="36">
-      <c r="A33" s="3" t="s">
-        <v>66</v>
+    <row r="33" s="2" customFormat="1" ht="57">
+      <c r="A33" s="7">
+        <f>A31+7</f>
+        <v>45259</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="36">
-      <c r="A34" s="3" t="s">
-        <v>68</v>
+    <row r="34" s="2" customFormat="1" ht="57">
+      <c r="A34" s="7">
+        <f>A32+7</f>
+        <v>45264</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>70</v>
+      <c r="A35" s="7">
+        <f>A33+7</f>
+        <v>45266</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>37</v>
-      </c>
+    <row r="36" ht="14.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -167,10 +167,6 @@
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,7 +679,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -721,7 +717,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="3" s="2" customFormat="1" ht="35.25" customHeight="1">
       <c r="A3" s="4">
         <v>45154</v>
       </c>
@@ -734,9 +730,9 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A4" s="7">
-        <f>A2+7</f>
+    <row r="4" s="2" customFormat="1" ht="57" customHeight="1">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A11" si="0">A2+7</f>
         <v>45159</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -749,8 +745,8 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A5" s="7">
-        <f>A3+7</f>
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
         <v>45161</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -763,8 +759,8 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A6" s="7">
-        <f>A4+7</f>
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
         <v>45166</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -777,8 +773,8 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="7">
-        <f>A5+7</f>
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
         <v>45168</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -791,8 +787,8 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A8" s="7">
-        <f>A6+7</f>
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
         <v>45173</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -805,8 +801,8 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A9" s="7">
-        <f>A7+7</f>
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
         <v>45175</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -819,8 +815,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A10" s="7">
-        <f>A8+7</f>
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
         <v>45180</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -833,8 +829,8 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="A11" s="7">
-        <f>A9+7</f>
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
         <v>45182</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -847,8 +843,8 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A12" s="7">
-        <f>A10+7</f>
+      <c r="A12" s="4">
+        <f t="shared" ref="A12:A35" si="1">A10+7</f>
         <v>45187</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -861,8 +857,8 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="7">
-        <f>A11+7</f>
+      <c r="A13" s="4">
+        <f t="shared" si="1"/>
         <v>45189</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -875,8 +871,8 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="7">
-        <f>A12+7</f>
+      <c r="A14" s="4">
+        <f t="shared" si="1"/>
         <v>45194</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -889,8 +885,8 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="7">
-        <f>A13+7</f>
+      <c r="A15" s="4">
+        <f t="shared" si="1"/>
         <v>45196</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -903,8 +899,8 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="7">
-        <f>A14+7</f>
+      <c r="A16" s="4">
+        <f t="shared" si="1"/>
         <v>45201</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -917,8 +913,8 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="7">
-        <f>A15+7</f>
+      <c r="A17" s="4">
+        <f t="shared" si="1"/>
         <v>45203</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -931,8 +927,8 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A18" s="7">
-        <f>A16+7</f>
+      <c r="A18" s="4">
+        <f t="shared" si="1"/>
         <v>45208</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -945,8 +941,8 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="7">
-        <f>A17+7</f>
+      <c r="A19" s="4">
+        <f t="shared" si="1"/>
         <v>45210</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -959,8 +955,8 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="7">
-        <f>A18+7</f>
+      <c r="A20" s="4">
+        <f t="shared" si="1"/>
         <v>45215</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -973,8 +969,8 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="7">
-        <f>A19+7</f>
+      <c r="A21" s="4">
+        <f t="shared" si="1"/>
         <v>45217</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -987,8 +983,8 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="7">
-        <f>A20+7</f>
+      <c r="A22" s="4">
+        <f t="shared" si="1"/>
         <v>45222</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1001,8 +997,8 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="7">
-        <f>A21+7</f>
+      <c r="A23" s="4">
+        <f t="shared" si="1"/>
         <v>45224</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1015,8 +1011,8 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="7">
-        <f>A22+7</f>
+      <c r="A24" s="4">
+        <f t="shared" si="1"/>
         <v>45229</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1029,8 +1025,8 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="7">
-        <f>A23+7</f>
+      <c r="A25" s="4">
+        <f t="shared" si="1"/>
         <v>45231</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1043,8 +1039,8 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="7">
-        <f>A24+7</f>
+      <c r="A26" s="4">
+        <f t="shared" si="1"/>
         <v>45236</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1057,8 +1053,8 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="7">
-        <f>A25+7</f>
+      <c r="A27" s="4">
+        <f t="shared" si="1"/>
         <v>45238</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1071,8 +1067,8 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="7">
-        <f>A26+7</f>
+      <c r="A28" s="4">
+        <f t="shared" si="1"/>
         <v>45243</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1085,8 +1081,8 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="7">
-        <f>A27+7</f>
+      <c r="A29" s="4">
+        <f t="shared" si="1"/>
         <v>45245</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1099,8 +1095,8 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="7">
-        <f>A28+7</f>
+      <c r="A30" s="4">
+        <f t="shared" si="1"/>
         <v>45250</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1111,8 +1107,8 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="57">
-      <c r="A31" s="7">
-        <f>A29+7</f>
+      <c r="A31" s="4">
+        <f t="shared" si="1"/>
         <v>45252</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1123,8 +1119,8 @@
       <c r="E31" s="2"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="57">
-      <c r="A32" s="7">
-        <f>A30+7</f>
+      <c r="A32" s="4">
+        <f t="shared" si="1"/>
         <v>45257</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1135,8 +1131,8 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="57">
-      <c r="A33" s="7">
-        <f>A31+7</f>
+      <c r="A33" s="4">
+        <f t="shared" si="1"/>
         <v>45259</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1147,8 +1143,8 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="57">
-      <c r="A34" s="7">
-        <f>A32+7</f>
+      <c r="A34" s="4">
+        <f t="shared" si="1"/>
         <v>45264</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1161,8 +1157,8 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="7">
-        <f>A33+7</f>
+      <c r="A35" s="4">
+        <f t="shared" si="1"/>
         <v>45266</v>
       </c>
       <c r="B35" s="3" t="s">

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -84,6 +84,9 @@
     <t xml:space="preserve">Studio class for group activity "My First Contribution"</t>
   </si>
   <si>
+    <t xml:space="preserve">EXAM WEEK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Working in software communities</t>
   </si>
   <si>
@@ -96,19 +99,19 @@
     <t xml:space="preserve">Studio class for project development</t>
   </si>
   <si>
-    <t xml:space="preserve">EXAM WEEK</t>
+    <t xml:space="preserve">Topics on free culture and software communities</t>
   </si>
   <si>
     <t xml:space="preserve">PUBLIC HOLIDAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topics on free culture and software communities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11.000000"/>
@@ -136,17 +139,17 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -167,6 +170,10 @@
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,7 +713,7 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="41.25" customHeight="1">
       <c r="A2" s="4">
-        <v>45152</v>
+        <v>45518</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -719,7 +726,7 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="35.25" customHeight="1">
       <c r="A3" s="4">
-        <v>45154</v>
+        <v>45523</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -733,7 +740,7 @@
     <row r="4" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A11" si="0">A2+7</f>
-        <v>45159</v>
+        <v>45525</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -747,7 +754,7 @@
     <row r="5" s="2" customFormat="1" ht="35.25" customHeight="1">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
-        <v>45161</v>
+        <v>45530</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -761,7 +768,7 @@
     <row r="6" s="2" customFormat="1" ht="44.25" customHeight="1">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
-        <v>45166</v>
+        <v>45532</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -775,7 +782,7 @@
     <row r="7" s="2" customFormat="1" ht="30.75" customHeight="1">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
-        <v>45168</v>
+        <v>45537</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -789,7 +796,7 @@
     <row r="8" s="2" customFormat="1" ht="36.75" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
-        <v>45173</v>
+        <v>45539</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -803,7 +810,7 @@
     <row r="9" s="2" customFormat="1" ht="48" customHeight="1">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
-        <v>45175</v>
+        <v>45544</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -817,7 +824,7 @@
     <row r="10" s="2" customFormat="1" ht="42.75" customHeight="1">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
-        <v>45180</v>
+        <v>45546</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
@@ -831,7 +838,7 @@
     <row r="11" s="2" customFormat="1" ht="39" customHeight="1">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
-        <v>45182</v>
+        <v>45551</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
@@ -845,7 +852,7 @@
     <row r="12" s="2" customFormat="1" ht="42.75" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" ref="A12:A35" si="1">A10+7</f>
-        <v>45187</v>
+        <v>45553</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
@@ -859,7 +866,7 @@
     <row r="13" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
-        <v>45189</v>
+        <v>45558</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
@@ -873,7 +880,7 @@
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="4">
         <f t="shared" si="1"/>
-        <v>45194</v>
+        <v>45560</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>22</v>
@@ -887,13 +894,13 @@
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
-        <v>45196</v>
+        <v>45565</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -901,13 +908,13 @@
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
-        <v>45201</v>
+        <v>45567</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -915,13 +922,13 @@
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
-        <v>45203</v>
+        <v>45572</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -929,10 +936,10 @@
     <row r="18" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
-        <v>45208</v>
+        <v>45574</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -943,10 +950,10 @@
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
-        <v>45210</v>
+        <v>45579</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
@@ -957,13 +964,13 @@
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="4">
         <f t="shared" si="1"/>
-        <v>45215</v>
+        <v>45581</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -971,13 +978,13 @@
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="4">
         <f t="shared" si="1"/>
-        <v>45217</v>
+        <v>45586</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -985,13 +992,13 @@
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="4">
         <f t="shared" si="1"/>
-        <v>45222</v>
+        <v>45588</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -999,13 +1006,13 @@
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="4">
         <f t="shared" si="1"/>
-        <v>45224</v>
+        <v>45593</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1013,13 +1020,13 @@
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="4">
         <f t="shared" si="1"/>
-        <v>45229</v>
+        <v>45595</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1027,13 +1034,13 @@
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="4">
         <f t="shared" si="1"/>
-        <v>45231</v>
+        <v>45600</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1041,13 +1048,13 @@
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="4">
         <f t="shared" si="1"/>
-        <v>45236</v>
+        <v>45602</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1055,13 +1062,13 @@
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="4">
         <f t="shared" si="1"/>
-        <v>45238</v>
+        <v>45607</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1069,13 +1076,13 @@
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="4">
         <f t="shared" si="1"/>
-        <v>45243</v>
+        <v>45609</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1083,36 +1090,35 @@
     <row r="29" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="4">
         <f t="shared" si="1"/>
-        <v>45245</v>
+        <v>45614</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="4">
         <f t="shared" si="1"/>
-        <v>45250</v>
+        <v>45616</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="57">
       <c r="A31" s="4">
         <f t="shared" si="1"/>
-        <v>45252</v>
+        <v>45621</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
@@ -1121,10 +1127,10 @@
     <row r="32" s="2" customFormat="1" ht="57">
       <c r="A32" s="4">
         <f t="shared" si="1"/>
-        <v>45257</v>
+        <v>45623</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="2"/>
@@ -1133,25 +1139,27 @@
     <row r="33" s="2" customFormat="1" ht="57">
       <c r="A33" s="4">
         <f t="shared" si="1"/>
-        <v>45259</v>
+        <v>45628</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="57">
       <c r="A34" s="4">
         <f t="shared" si="1"/>
-        <v>45264</v>
+        <v>45630</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1159,21 +1167,28 @@
     <row r="35" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="4">
         <f t="shared" si="1"/>
-        <v>45266</v>
+        <v>45635</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="7">
+        <f>A34+7</f>
+        <v>45637</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -24,12 +24,21 @@
     <t>Content</t>
   </si>
   <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
     <t xml:space="preserve">Introduction to the course and its challenges</t>
   </si>
   <si>
     <t xml:space="preserve">Workflow with distributed version control: forks, patches, pull requests, and local repositories. Technical and non-technical aspects surrounding software: infrastructure, support, marketing, funding. Reference: FOGEL Ch. 3; Additional reading: TAPSCOTT &amp; WILLIAMS.</t>
   </si>
   <si>
+    <t xml:space="preserve">Each completed activity is delivered via a PR in the course repository and serves as evidence for the learning objectives mentioned above.</t>
+  </si>
+  <si>
     <t xml:space="preserve">First code contribution</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">Studio class for project development</t>
+  </si>
+  <si>
+    <t>Project</t>
   </si>
   <si>
     <t xml:space="preserve">Topics on free culture and software communities</t>
@@ -109,24 +121,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8.000000"/>
-      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -161,17 +161,10 @@
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -686,7 +679,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -695,7 +688,8 @@
     <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="14.719285714285713"/>
     <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="53.433571428571433"/>
     <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="54.576428571428572"/>
-    <col bestFit="1" customWidth="1" min="4" max="5" style="2" width="13.005000000000001"/>
+    <col customWidth="1" min="4" max="4" style="2" width="35.28125"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="2" width="13.005000000000001"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -708,487 +702,614 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>45518</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>45523</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="57" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A11" si="0">A2+7</f>
         <v>45525</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>45530</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>45532</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>45537</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>45539</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>45544</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>45546</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>45551</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A12" s="4">
-        <f t="shared" ref="A12:A35" si="1">A10+7</f>
+      <c r="A12" s="5">
+        <f t="shared" ref="A12:A34" si="1">A10+7</f>
         <v>45553</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>45558</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>45560</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>45565</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>45567</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>45572</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>45574</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <f t="shared" si="1"/>
         <v>45579</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>45581</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>45586</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <f t="shared" si="1"/>
         <v>45588</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>45593</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>45595</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <f t="shared" si="1"/>
         <v>45600</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <f t="shared" si="1"/>
         <v>45602</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <f t="shared" si="1"/>
         <v>45607</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <f t="shared" si="1"/>
         <v>45609</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>45614</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <f t="shared" si="1"/>
         <v>45616</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="57">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <f t="shared" si="1"/>
         <v>45621</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="57">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <f t="shared" si="1"/>
         <v>45623</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="57">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <f t="shared" si="1"/>
         <v>45628</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="57">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <f t="shared" si="1"/>
         <v>45630</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="4">
-        <f t="shared" si="1"/>
-        <v>45635</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="7">
-        <f>A34+7</f>
-        <v>45637</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>

--- a/plano-de-aulas.xlsx
+++ b/plano-de-aulas.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -30,103 +31,111 @@
     <t>Activities</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction to the course and its challenges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workflow with distributed version control: forks, patches, pull requests, and local repositories. Technical and non-technical aspects surrounding software: infrastructure, support, marketing, funding. Reference: FOGEL Ch. 3; Additional reading: TAPSCOTT &amp; WILLIAMS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each completed activity is delivered via a PR in the course repository and serves as evidence for the learning objectives mentioned above.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First code contribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workflow with distributed version control: ammend, rebase, revert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project documentation and what to do when it doesn't exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Types of documentation (user, developer). Source code documentation systems: doxygen, Javadoc, pydoc, sphinx; Reference: FOGEL Ch. 3 (Wikis, Website)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Studio class for "Professional Project" activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensuring others can work on the project: API documentation</t>
+    <t>Introduction to the course and its challenges</t>
+  </si>
+  <si>
+    <t>Workflow with distributed version control: forks, patches, pull requests, and local repositories. Technical and non-technical aspects surrounding software: infrastructure, support, marketing, funding. Reference: FOGEL Ch. 3; Additional reading: TAPSCOTT &amp; WILLIAMS.</t>
+  </si>
+  <si>
+    <t>Each completed activity is delivered via a PR in the course repository and serves as evidence for the learning objectives mentioned above.</t>
+  </si>
+  <si>
+    <t>First code contribution</t>
+  </si>
+  <si>
+    <t>Workflow with distributed version control: ammend, rebase, revert.</t>
+  </si>
+  <si>
+    <t>Project documentation and what to do when it doesn&amp;apos;t exist</t>
+  </si>
+  <si>
+    <t>Types of documentation (user, developer). Source code documentation systems: doxygen, Javadoc, pydoc, sphinx; Reference: FOGEL Ch. 3 (Wikis, Website)</t>
+  </si>
+  <si>
+    <t>Studio class for "Professional Project" activity</t>
+  </si>
+  <si>
+    <t>Ensuring others can work on the project: API documentation</t>
   </si>
   <si>
     <t xml:space="preserve"> code quality</t>
   </si>
   <si>
-    <t xml:space="preserve">Software distribution and versioning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software distribution tools. Types of distribution. Versioning schemes. Reference: FOGEL Ch. 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to make software work in multiple countries?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Localization and internationalization. Gettext tool for translations and .po format.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Types of software testing: unit, integration, and interface. Testing tools: pytest, selenium.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Studio class for "Software Testing" activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software licenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyrights in Brazil, patents, and software licenses; Reference: LAURENT Ch. 1 and 5, STALLMAN Ch. 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to contributions in open projects - Activity "My First Contribution"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Studio class for group activity "My First Contribution"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXAM WEEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working in software communities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assessment metrics for the second part of the course; Communication and teamwork. Reference: RAYMOND Ch. 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Studio class for project development</t>
+    <t>Software distribution and versioning</t>
+  </si>
+  <si>
+    <t>Software distribution tools. Types of distribution. Versioning schemes. Reference: FOGEL Ch. 7</t>
+  </si>
+  <si>
+    <t>How to make software work in multiple countries?</t>
+  </si>
+  <si>
+    <t>Localization and internationalization. Gettext tool for translations and .po format.</t>
+  </si>
+  <si>
+    <t>Software testing</t>
+  </si>
+  <si>
+    <t>Types of software testing: unit, integration, and interface. Testing tools: pytest, selenium.</t>
+  </si>
+  <si>
+    <t>Studio class for "Software Testing" activity</t>
+  </si>
+  <si>
+    <t>Software licenses</t>
+  </si>
+  <si>
+    <t>Copyrights in Brazil, patents, and software licenses; Reference: LAURENT Ch. 1 and 5, STALLMAN Ch. 6</t>
+  </si>
+  <si>
+    <t>Introduction to contributions in open projects - Activity "My First Contribution"</t>
+  </si>
+  <si>
+    <t>Studio class for group activity "My First Contribution"</t>
+  </si>
+  <si>
+    <t>EXAM WEEK</t>
+  </si>
+  <si>
+    <t>Working in software communities</t>
+  </si>
+  <si>
+    <t>Assessment metrics for the second part of the course; Communication and teamwork. Reference: RAYMOND Ch. 4</t>
+  </si>
+  <si>
+    <t>Course project</t>
+  </si>
+  <si>
+    <t>Studio class for project development</t>
   </si>
   <si>
     <t>Project</t>
   </si>
   <si>
-    <t xml:space="preserve">Topics on free culture and software communities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUBLIC HOLIDAY</t>
+    <t>Topics on free culture and software communities</t>
+  </si>
+  <si>
+    <t>PUBLIC HOLIDAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,343 +146,68 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -509,13 +243,73 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,7 +317,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -543,9 +337,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -566,11 +360,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -579,13 +373,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -595,7 +389,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -604,7 +398,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -613,19 +407,30 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -647,9 +452,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -663,37 +470,38 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="14.719285714285713"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="53.433571428571433"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="54.576428571428572"/>
-    <col customWidth="1" min="4" max="4" style="2" width="35.28125"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="2" width="13.005000000000001"/>
+    <col min="1" max="1" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="53.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="54.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="35.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -702,15 +510,15 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A2" s="5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="279" customFormat="1" s="1">
+      <c r="A2" s="2">
         <v>45518</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -719,15 +527,15 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A3" s="5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="89.25" customFormat="1" s="1">
+      <c r="A3" s="2">
         <v>45523</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -736,17 +544,17 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="57" customHeight="1">
-      <c r="A4" s="5">
-        <f t="shared" ref="A4:A11" si="0">A2+7</f>
-        <v>45525</v>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="183.75" customFormat="1" s="1">
+      <c r="A4" s="2">
+        <f>A2+7</f>
+        <v>25568.875</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -754,16 +562,15 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A5" s="5">
-        <f t="shared" si="0"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="65.25" customFormat="1" s="1">
+      <c r="A5" s="2">
         <v>45530</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -772,16 +579,15 @@
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A6" s="5">
-        <f t="shared" si="0"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="53.25" customFormat="1" s="1">
+      <c r="A6" s="2">
         <v>45532</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -790,16 +596,15 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="5">
-        <f t="shared" si="0"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="112.5" customFormat="1" s="1">
+      <c r="A7" s="2">
         <v>45537</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -808,16 +613,15 @@
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A8" s="5">
-        <f t="shared" si="0"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="112.5" customFormat="1" s="1">
+      <c r="A8" s="2">
         <v>45539</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -826,16 +630,15 @@
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A9" s="5">
-        <f t="shared" si="0"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="100.5" customFormat="1" s="1">
+      <c r="A9" s="2">
         <v>45544</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -844,16 +647,15 @@
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="53.25" customFormat="1" s="1">
+      <c r="A10" s="2">
         <v>45546</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -862,16 +664,15 @@
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="A11" s="5">
-        <f t="shared" si="0"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="124.5" customFormat="1" s="1">
+      <c r="A11" s="2">
         <v>45551</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -880,17 +681,17 @@
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A12" s="5">
-        <f t="shared" ref="A12:A34" si="1">A10+7</f>
-        <v>45553</v>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="65.25" customFormat="1" s="1">
+      <c r="A12" s="2">
+        <f>A10+7</f>
+        <v>25568.875</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -898,16 +699,15 @@
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="65.25" customFormat="1" s="1">
+      <c r="A13" s="2">
         <v>45558</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -916,16 +716,15 @@
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="65.25" customFormat="1" s="1">
+      <c r="A14" s="2">
         <v>45560</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -934,16 +733,15 @@
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A15" s="2">
         <v>45565</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -959,9 +757,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A16" s="2">
         <v>45567</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -977,9 +774,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A17" s="2">
         <v>45572</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -988,16 +784,15 @@
       <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A18" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="23.25" customFormat="1" s="1">
+      <c r="A18" s="2">
         <v>45574</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1006,16 +801,15 @@
       <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A19" s="2">
         <v>45579</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1024,16 +818,15 @@
       <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A20" s="2">
         <v>45581</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1042,16 +835,15 @@
       <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A21" s="2">
         <v>45586</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1060,16 +852,15 @@
       <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A22" s="2">
         <v>45588</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1078,16 +869,15 @@
       <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A23" s="2">
         <v>45593</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1096,16 +886,15 @@
       <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A24" s="2">
         <v>45595</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1114,16 +903,15 @@
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A25" s="2">
         <v>45600</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1132,16 +920,15 @@
       <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A26" s="2">
         <v>45602</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1150,52 +937,49 @@
       <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A27" s="2">
         <v>45607</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="5">
-        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A28" s="2">
         <v>45609</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="5">
-        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A29" s="2">
         <v>45614</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1211,9 +995,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A30" s="2">
         <v>45616</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1222,14 +1005,13 @@
       <c r="C30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="57">
-      <c r="A31" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A31" s="2">
         <v>45621</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1245,9 +1027,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="57">
-      <c r="A32" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A32" s="2">
         <v>45623</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1263,9 +1044,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="57">
-      <c r="A33" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A33" s="2">
         <v>45628</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1281,9 +1061,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="57">
-      <c r="A34" s="5">
-        <f t="shared" si="1"/>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A34" s="2">
         <v>45630</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1299,24 +1078,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18" customFormat="1" s="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>